--- a/SampleTest.xlsx
+++ b/SampleTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed_Chaipillai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExcelTesting\ExcelHook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70977D9-1E37-4766-B7D3-D8F1EF590C9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF76F4A-A2EA-4433-B4F7-B27CB5FADA6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8CE63D7-41E7-47B5-967B-3E6EA6FC938C}"/>
   </bookViews>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>sample</t>
   </si>
   <si>
     <t>secondsample</t>
+  </si>
+  <si>
+    <t>ThirdSample</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E719D52-9C2A-4D12-811A-D7F08872A173}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,6 +411,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
